--- a/Code/Results/Cases/Case_0_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_126/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.079712624104626</v>
+        <v>4.913903365559928</v>
       </c>
       <c r="D2">
-        <v>3.618530917638271</v>
+        <v>4.292552934790345</v>
       </c>
       <c r="E2">
-        <v>6.737809003518589</v>
+        <v>11.2888838682746</v>
       </c>
       <c r="F2">
-        <v>65.13997733342281</v>
+        <v>61.7386625164971</v>
       </c>
       <c r="G2">
-        <v>2.098881309721484</v>
+        <v>3.773113911216053</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.367048697146352</v>
+        <v>10.87173636623256</v>
       </c>
       <c r="K2">
-        <v>24.28178588608612</v>
+        <v>24.14971029846336</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.551368181725762</v>
+        <v>4.762165049485147</v>
       </c>
       <c r="D3">
-        <v>3.461551016970182</v>
+        <v>4.29370355723789</v>
       </c>
       <c r="E3">
-        <v>6.560015779839734</v>
+        <v>11.31808361841776</v>
       </c>
       <c r="F3">
-        <v>61.74760685099068</v>
+        <v>60.98766605690877</v>
       </c>
       <c r="G3">
-        <v>2.11671779288339</v>
+        <v>3.778714272135998</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.198818009565371</v>
+        <v>10.87562178676379</v>
       </c>
       <c r="K3">
-        <v>22.49317705466447</v>
+        <v>23.92483556898414</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.21359546182337</v>
+        <v>4.668374986915694</v>
       </c>
       <c r="D4">
-        <v>3.365677165521062</v>
+        <v>4.29538028734332</v>
       </c>
       <c r="E4">
-        <v>6.457191726930188</v>
+        <v>11.33897390350713</v>
       </c>
       <c r="F4">
-        <v>59.65775235165101</v>
+        <v>60.53458786347476</v>
       </c>
       <c r="G4">
-        <v>2.127760620404267</v>
+        <v>3.782321379759144</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.101004479446845</v>
+        <v>10.87999669866327</v>
       </c>
       <c r="K4">
-        <v>21.52654081600788</v>
+        <v>23.79534979399848</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.072445768730969</v>
+        <v>4.630064456868946</v>
       </c>
       <c r="D5">
-        <v>3.326664297724018</v>
+        <v>4.296304498848992</v>
       </c>
       <c r="E5">
-        <v>6.416849016192576</v>
+        <v>11.34823008507262</v>
       </c>
       <c r="F5">
-        <v>58.80426405036887</v>
+        <v>60.35211590577624</v>
       </c>
       <c r="G5">
-        <v>2.132292853367971</v>
+        <v>3.783833879416628</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.062454900914152</v>
+        <v>10.88227836002967</v>
       </c>
       <c r="K5">
-        <v>21.1284440372834</v>
+        <v>23.74479965216622</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.048792411580074</v>
+        <v>4.623699571301194</v>
       </c>
       <c r="D6">
-        <v>3.320187754166891</v>
+        <v>4.296472424315297</v>
       </c>
       <c r="E6">
-        <v>6.410243386428038</v>
+        <v>11.34981190988912</v>
       </c>
       <c r="F6">
-        <v>58.66243262518373</v>
+        <v>60.3219510830892</v>
       </c>
       <c r="G6">
-        <v>2.133047620397354</v>
+        <v>3.784087606411622</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.056131080323492</v>
+        <v>10.88268731452908</v>
       </c>
       <c r="K6">
-        <v>21.06209108043356</v>
+        <v>23.73654126107861</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.211706235568379</v>
+        <v>4.667858593326319</v>
       </c>
       <c r="D7">
-        <v>3.365150882854634</v>
+        <v>4.295391780147788</v>
       </c>
       <c r="E7">
-        <v>6.456641380805199</v>
+        <v>11.33909572836044</v>
       </c>
       <c r="F7">
-        <v>59.64624938064528</v>
+        <v>60.53211805168224</v>
       </c>
       <c r="G7">
-        <v>2.127821601940585</v>
+        <v>3.782341605195726</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.100479364826212</v>
+        <v>10.88002545202582</v>
       </c>
       <c r="K7">
-        <v>21.52118875211856</v>
+        <v>23.79465901183365</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.900222183701736</v>
+        <v>4.861751608528723</v>
       </c>
       <c r="D8">
-        <v>3.564250455327095</v>
+        <v>4.292746489348708</v>
       </c>
       <c r="E8">
-        <v>6.675165343427615</v>
+        <v>11.29833642691772</v>
       </c>
       <c r="F8">
-        <v>63.97156868325686</v>
+        <v>61.47813667597208</v>
       </c>
       <c r="G8">
-        <v>2.105018383986445</v>
+        <v>3.775010079539688</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.307861225175591</v>
+        <v>10.87266241304854</v>
       </c>
       <c r="K8">
-        <v>23.66111008614764</v>
+        <v>24.07042661107546</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.15184272759517</v>
+        <v>5.23433636741937</v>
       </c>
       <c r="D9">
-        <v>3.962781022859049</v>
+        <v>4.295390067235378</v>
       </c>
       <c r="E9">
-        <v>7.156272266793723</v>
+        <v>11.24196764963731</v>
       </c>
       <c r="F9">
-        <v>72.42051857303046</v>
+        <v>63.39065702344281</v>
       </c>
       <c r="G9">
-        <v>2.060529570908614</v>
+        <v>3.761959936327263</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.761752330496255</v>
+        <v>10.87406346985668</v>
       </c>
       <c r="K9">
-        <v>28.0076930450917</v>
+        <v>24.67661765160344</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.023910682489811</v>
+        <v>5.5001095884455</v>
       </c>
       <c r="D10">
-        <v>4.267700372196695</v>
+        <v>4.302282192513761</v>
       </c>
       <c r="E10">
-        <v>7.546514721658439</v>
+        <v>11.21499429981989</v>
       </c>
       <c r="F10">
-        <v>78.66837755432995</v>
+        <v>64.82198555822717</v>
       </c>
       <c r="G10">
-        <v>2.027135856465478</v>
+        <v>3.753167282648948</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.130718995871659</v>
+        <v>10.88481916034132</v>
       </c>
       <c r="K10">
-        <v>31.05872758874172</v>
+        <v>25.15791422085303</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.413962892302296</v>
+        <v>5.618680627037248</v>
       </c>
       <c r="D11">
-        <v>4.411260326636964</v>
+        <v>4.306527995359287</v>
       </c>
       <c r="E11">
-        <v>7.733732711529745</v>
+        <v>11.20587284300657</v>
       </c>
       <c r="F11">
-        <v>81.54341709276383</v>
+        <v>65.47691611359097</v>
       </c>
       <c r="G11">
-        <v>2.011540028379332</v>
+        <v>3.749337015099598</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.308398274211239</v>
+        <v>10.89183587369689</v>
       </c>
       <c r="K11">
-        <v>32.42882084408732</v>
+        <v>25.38376343302624</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.56110287152384</v>
+        <v>5.663201055956439</v>
       </c>
       <c r="D12">
-        <v>4.466570022513164</v>
+        <v>4.308298182266298</v>
       </c>
       <c r="E12">
-        <v>7.806232642446671</v>
+        <v>11.20287241857629</v>
       </c>
       <c r="F12">
-        <v>82.63982089895899</v>
+        <v>65.72530848794939</v>
       </c>
       <c r="G12">
-        <v>2.005548493051324</v>
+        <v>3.747910742486342</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.377340156437004</v>
+        <v>10.89479893856412</v>
       </c>
       <c r="K12">
-        <v>32.94652891630429</v>
+        <v>25.47020051685418</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.529431422252262</v>
+        <v>5.653630342533369</v>
       </c>
       <c r="D13">
-        <v>4.454611263675108</v>
+        <v>4.307909676640003</v>
       </c>
       <c r="E13">
-        <v>7.790542962925423</v>
+        <v>11.20349842434014</v>
       </c>
       <c r="F13">
-        <v>82.40329076736771</v>
+        <v>65.67179824228026</v>
       </c>
       <c r="G13">
-        <v>2.006843206553442</v>
+        <v>3.748216844432742</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.362413823895139</v>
+        <v>10.89414717338676</v>
       </c>
       <c r="K13">
-        <v>32.83505358028738</v>
+        <v>25.45154542983011</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.426076896494864</v>
+        <v>5.622351202180395</v>
       </c>
       <c r="D14">
-        <v>4.415790040443133</v>
+        <v>4.30667036005389</v>
       </c>
       <c r="E14">
-        <v>7.739663695660444</v>
+        <v>11.20561689960924</v>
       </c>
       <c r="F14">
-        <v>81.633444265552</v>
+        <v>65.49734473310852</v>
       </c>
       <c r="G14">
-        <v>2.011049002647817</v>
+        <v>3.749219191695837</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.314035258572401</v>
+        <v>10.89207351171601</v>
       </c>
       <c r="K14">
-        <v>32.47142568625891</v>
+        <v>25.39085683090199</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.362709086602711</v>
+        <v>5.603141108743955</v>
       </c>
       <c r="D15">
-        <v>4.392142772058123</v>
+        <v>4.305932469376423</v>
       </c>
       <c r="E15">
-        <v>7.708715136533104</v>
+        <v>11.20697363149771</v>
       </c>
       <c r="F15">
-        <v>81.1629971536555</v>
+        <v>65.39053214269693</v>
       </c>
       <c r="G15">
-        <v>2.013613071346678</v>
+        <v>3.749836299134023</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.284626494267803</v>
+        <v>10.89084319672784</v>
       </c>
       <c r="K15">
-        <v>32.24859726854095</v>
+        <v>25.35379980083767</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.998317382779602</v>
+        <v>5.492309867985194</v>
       </c>
       <c r="D16">
-        <v>4.258435796781422</v>
+        <v>4.302027299653273</v>
       </c>
       <c r="E16">
-        <v>7.534491055409029</v>
+        <v>11.21565384988329</v>
       </c>
       <c r="F16">
-        <v>78.48137990879708</v>
+        <v>64.77924698587006</v>
       </c>
       <c r="G16">
-        <v>2.0281447361682</v>
+        <v>3.753420993143052</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.119324429433405</v>
+        <v>10.88440339296644</v>
       </c>
       <c r="K16">
-        <v>30.9689452524884</v>
+        <v>25.14328657720001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.773321378087214</v>
+        <v>5.423688301840195</v>
       </c>
       <c r="D17">
-        <v>4.177810492083362</v>
+        <v>4.299917998353488</v>
       </c>
       <c r="E17">
-        <v>7.430221600966134</v>
+        <v>11.22178605397358</v>
       </c>
       <c r="F17">
-        <v>76.84652928069137</v>
+        <v>64.40510281902571</v>
       </c>
       <c r="G17">
-        <v>2.036938235113871</v>
+        <v>3.755663361028641</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.020588418058146</v>
+        <v>10.88099722739997</v>
       </c>
       <c r="K17">
-        <v>30.18026973682822</v>
+        <v>25.01585555455432</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.643254959984102</v>
+        <v>5.38400200786463</v>
       </c>
       <c r="D18">
-        <v>4.131875277601144</v>
+        <v>4.298809159336723</v>
       </c>
       <c r="E18">
-        <v>7.371144941031509</v>
+        <v>11.22560947934067</v>
       </c>
       <c r="F18">
-        <v>75.90907255117847</v>
+        <v>64.19027355771459</v>
       </c>
       <c r="G18">
-        <v>2.041959904574217</v>
+        <v>3.756969083947733</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.964705606891069</v>
+        <v>10.87923797917323</v>
       </c>
       <c r="K18">
-        <v>29.72486001695922</v>
+        <v>24.94321542871259</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.599093770509432</v>
+        <v>5.370529081623968</v>
       </c>
       <c r="D19">
-        <v>4.116391139828367</v>
+        <v>4.298451567882662</v>
       </c>
       <c r="E19">
-        <v>7.351291256783954</v>
+        <v>11.22695489342095</v>
       </c>
       <c r="F19">
-        <v>75.59208284226881</v>
+        <v>64.11760437190249</v>
       </c>
       <c r="G19">
-        <v>2.043654682869682</v>
+        <v>3.757413929073175</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.945934180619482</v>
+        <v>10.87867663851596</v>
       </c>
       <c r="K19">
-        <v>29.57032135872506</v>
+        <v>24.91873561428039</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.797337792987522</v>
+        <v>5.431015980273344</v>
       </c>
       <c r="D20">
-        <v>4.186346233160692</v>
+        <v>4.300131714704629</v>
       </c>
       <c r="E20">
-        <v>7.441227191303222</v>
+        <v>11.22110259308099</v>
       </c>
       <c r="F20">
-        <v>77.0202468375598</v>
+        <v>64.44489414936278</v>
       </c>
       <c r="G20">
-        <v>2.036006067953312</v>
+        <v>3.755423005631716</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.031003561993961</v>
+        <v>10.88133912716065</v>
       </c>
       <c r="K20">
-        <v>30.26440095578126</v>
+        <v>25.02935360805838</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.456446322512793</v>
+        <v>5.631549286696378</v>
       </c>
       <c r="D21">
-        <v>4.427164750408873</v>
+        <v>4.307029949142477</v>
       </c>
       <c r="E21">
-        <v>7.754562574901815</v>
+        <v>11.20498233340163</v>
       </c>
       <c r="F21">
-        <v>81.85932959254093</v>
+        <v>65.54857682358841</v>
       </c>
       <c r="G21">
-        <v>2.009816240226376</v>
+        <v>3.748924123852673</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.328197884604707</v>
+        <v>10.89267428829802</v>
       </c>
       <c r="K21">
-        <v>32.57824882968514</v>
+        <v>25.40865841162719</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.884182732892834</v>
+        <v>5.760377782992969</v>
       </c>
       <c r="D22">
-        <v>4.590242294020956</v>
+        <v>4.312486065488604</v>
       </c>
       <c r="E22">
-        <v>7.968854624124047</v>
+        <v>11.19709145040991</v>
       </c>
       <c r="F22">
-        <v>85.06892376458346</v>
+        <v>66.27206301149839</v>
       </c>
       <c r="G22">
-        <v>1.992181479860078</v>
+        <v>3.744817489644417</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.532271596692146</v>
+        <v>10.90186614377323</v>
       </c>
       <c r="K22">
-        <v>34.08495514194986</v>
+        <v>25.66183923992719</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.656011714565455</v>
+        <v>5.691837384215992</v>
       </c>
       <c r="D23">
-        <v>4.502582449148363</v>
+        <v>4.309486456041552</v>
       </c>
       <c r="E23">
-        <v>7.853522489252597</v>
+        <v>11.20106073466934</v>
       </c>
       <c r="F23">
-        <v>83.35034908164116</v>
+        <v>65.88578033972554</v>
       </c>
       <c r="G23">
-        <v>2.00165199670495</v>
+        <v>3.746996469349245</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.422351727516004</v>
+        <v>10.89679692743985</v>
       </c>
       <c r="K23">
-        <v>33.28071601261482</v>
+        <v>25.52625516348441</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.786482221610324</v>
+        <v>5.427703864889549</v>
       </c>
       <c r="D24">
-        <v>4.182485942508621</v>
+        <v>4.300034770352299</v>
       </c>
       <c r="E24">
-        <v>7.436248871254031</v>
+        <v>11.22141065780359</v>
       </c>
       <c r="F24">
-        <v>76.94170173784131</v>
+        <v>64.42690363174017</v>
       </c>
       <c r="G24">
-        <v>2.036427604123233</v>
+        <v>3.755531618723065</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.026292146093366</v>
+        <v>10.88118393447841</v>
       </c>
       <c r="K24">
-        <v>30.22637153297071</v>
+        <v>25.02324919566005</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.822634438696928</v>
+        <v>5.134719453682552</v>
       </c>
       <c r="D25">
-        <v>3.853457151652925</v>
+        <v>4.293817982322104</v>
       </c>
       <c r="E25">
-        <v>7.020100115267796</v>
+        <v>11.25468598578296</v>
       </c>
       <c r="F25">
-        <v>70.13381752549977</v>
+        <v>62.8680229196567</v>
       </c>
       <c r="G25">
-        <v>2.072617994778842</v>
+        <v>3.765349695612366</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.633310958682642</v>
+        <v>10.8719807876905</v>
       </c>
       <c r="K25">
-        <v>26.86048323748674</v>
+        <v>24.50601796186861</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_126/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.913903365559928</v>
+        <v>7.079712624104702</v>
       </c>
       <c r="D2">
-        <v>4.292552934790345</v>
+        <v>3.618530917638311</v>
       </c>
       <c r="E2">
-        <v>11.2888838682746</v>
+        <v>6.73780900351852</v>
       </c>
       <c r="F2">
-        <v>61.7386625164971</v>
+        <v>65.13997733342289</v>
       </c>
       <c r="G2">
-        <v>3.773113911216053</v>
+        <v>2.098881309721217</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.87173636623256</v>
+        <v>7.367048697146339</v>
       </c>
       <c r="K2">
-        <v>24.14971029846336</v>
+        <v>24.28178588608622</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.762165049485147</v>
+        <v>6.551368181725688</v>
       </c>
       <c r="D3">
-        <v>4.29370355723789</v>
+        <v>3.461551016970056</v>
       </c>
       <c r="E3">
-        <v>11.31808361841776</v>
+        <v>6.560015779839818</v>
       </c>
       <c r="F3">
-        <v>60.98766605690877</v>
+        <v>61.74760685099086</v>
       </c>
       <c r="G3">
-        <v>3.778714272135998</v>
+        <v>2.116717792883521</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.87562178676379</v>
+        <v>7.198818009565401</v>
       </c>
       <c r="K3">
-        <v>23.92483556898414</v>
+        <v>22.49317705466448</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.668374986915694</v>
+        <v>6.213595461823171</v>
       </c>
       <c r="D4">
-        <v>4.29538028734332</v>
+        <v>3.365677165521066</v>
       </c>
       <c r="E4">
-        <v>11.33897390350713</v>
+        <v>6.457191726930136</v>
       </c>
       <c r="F4">
-        <v>60.53458786347476</v>
+        <v>59.65775235165091</v>
       </c>
       <c r="G4">
-        <v>3.782321379759144</v>
+        <v>2.127760620404135</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.87999669866327</v>
+        <v>7.101004479446858</v>
       </c>
       <c r="K4">
-        <v>23.79534979399848</v>
+        <v>21.52654081600792</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.630064456868946</v>
+        <v>6.072445768730943</v>
       </c>
       <c r="D5">
-        <v>4.296304498848992</v>
+        <v>3.32666429772403</v>
       </c>
       <c r="E5">
-        <v>11.34823008507262</v>
+        <v>6.416849016192557</v>
       </c>
       <c r="F5">
-        <v>60.35211590577624</v>
+        <v>58.80426405036868</v>
       </c>
       <c r="G5">
-        <v>3.783833879416628</v>
+        <v>2.132292853367842</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.88227836002967</v>
+        <v>7.062454900914153</v>
       </c>
       <c r="K5">
-        <v>23.74479965216622</v>
+        <v>21.12844403728345</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.623699571301194</v>
+        <v>6.04879241158016</v>
       </c>
       <c r="D6">
-        <v>4.296472424315297</v>
+        <v>3.320187754166904</v>
       </c>
       <c r="E6">
-        <v>11.34981190988912</v>
+        <v>6.410243386428076</v>
       </c>
       <c r="F6">
-        <v>60.3219510830892</v>
+        <v>58.66243262518377</v>
       </c>
       <c r="G6">
-        <v>3.784087606411622</v>
+        <v>2.133047620397484</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.88268731452908</v>
+        <v>7.056131080323561</v>
       </c>
       <c r="K6">
-        <v>23.73654126107861</v>
+        <v>21.06209108043352</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.667858593326319</v>
+        <v>6.211706235568097</v>
       </c>
       <c r="D7">
-        <v>4.295391780147788</v>
+        <v>3.36515088285463</v>
       </c>
       <c r="E7">
-        <v>11.33909572836044</v>
+        <v>6.456641380805161</v>
       </c>
       <c r="F7">
-        <v>60.53211805168224</v>
+        <v>59.64624938064564</v>
       </c>
       <c r="G7">
-        <v>3.782341605195726</v>
+        <v>2.12782160194072</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.88002545202582</v>
+        <v>7.10047936482619</v>
       </c>
       <c r="K7">
-        <v>23.79465901183365</v>
+        <v>21.52118875211856</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.861751608528723</v>
+        <v>6.900222183701768</v>
       </c>
       <c r="D8">
-        <v>4.292746489348708</v>
+        <v>3.564250455326924</v>
       </c>
       <c r="E8">
-        <v>11.29833642691772</v>
+        <v>6.675165343427632</v>
       </c>
       <c r="F8">
-        <v>61.47813667597208</v>
+        <v>63.97156868325668</v>
       </c>
       <c r="G8">
-        <v>3.775010079539688</v>
+        <v>2.105018383986191</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.87266241304854</v>
+        <v>7.307861225175605</v>
       </c>
       <c r="K8">
-        <v>24.07042661107546</v>
+        <v>23.66111008614761</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.23433636741937</v>
+        <v>8.151842727595064</v>
       </c>
       <c r="D9">
-        <v>4.295390067235378</v>
+        <v>3.962781022859023</v>
       </c>
       <c r="E9">
-        <v>11.24196764963731</v>
+        <v>7.156272266793738</v>
       </c>
       <c r="F9">
-        <v>63.39065702344281</v>
+        <v>72.42051857303015</v>
       </c>
       <c r="G9">
-        <v>3.761959936327263</v>
+        <v>2.060529570908995</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.87406346985668</v>
+        <v>7.761752330496245</v>
       </c>
       <c r="K9">
-        <v>24.67661765160344</v>
+        <v>28.00769304509159</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.5001095884455</v>
+        <v>9.023910682489891</v>
       </c>
       <c r="D10">
-        <v>4.302282192513761</v>
+        <v>4.267700372196753</v>
       </c>
       <c r="E10">
-        <v>11.21499429981989</v>
+        <v>7.546514721658486</v>
       </c>
       <c r="F10">
-        <v>64.82198555822717</v>
+        <v>78.66837755433009</v>
       </c>
       <c r="G10">
-        <v>3.753167282648948</v>
+        <v>2.027135856465867</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.88481916034132</v>
+        <v>8.130718995871691</v>
       </c>
       <c r="K10">
-        <v>25.15791422085303</v>
+        <v>31.05872758874171</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.618680627037248</v>
+        <v>9.413962892302347</v>
       </c>
       <c r="D11">
-        <v>4.306527995359287</v>
+        <v>4.411260326637053</v>
       </c>
       <c r="E11">
-        <v>11.20587284300657</v>
+        <v>7.733732711529792</v>
       </c>
       <c r="F11">
-        <v>65.47691611359097</v>
+        <v>81.54341709276397</v>
       </c>
       <c r="G11">
-        <v>3.749337015099598</v>
+        <v>2.011540028379332</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.89183587369689</v>
+        <v>8.308398274211287</v>
       </c>
       <c r="K11">
-        <v>25.38376343302624</v>
+        <v>32.42882084408738</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.663201055956439</v>
+        <v>9.561102871523584</v>
       </c>
       <c r="D12">
-        <v>4.308298182266298</v>
+        <v>4.466570022513155</v>
       </c>
       <c r="E12">
-        <v>11.20287241857629</v>
+        <v>7.806232642446698</v>
       </c>
       <c r="F12">
-        <v>65.72530848794939</v>
+        <v>82.6398208989587</v>
       </c>
       <c r="G12">
-        <v>3.747910742486342</v>
+        <v>2.005548493051302</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.89479893856412</v>
+        <v>8.377340156437048</v>
       </c>
       <c r="K12">
-        <v>25.47020051685418</v>
+        <v>32.94652891630432</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.653630342533369</v>
+        <v>9.529431422252346</v>
       </c>
       <c r="D13">
-        <v>4.307909676640003</v>
+        <v>4.454611263675124</v>
       </c>
       <c r="E13">
-        <v>11.20349842434014</v>
+        <v>7.790542962925421</v>
       </c>
       <c r="F13">
-        <v>65.67179824228026</v>
+        <v>82.40329076736766</v>
       </c>
       <c r="G13">
-        <v>3.748216844432742</v>
+        <v>2.006843206553322</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.89414717338676</v>
+        <v>8.362413823895139</v>
       </c>
       <c r="K13">
-        <v>25.45154542983011</v>
+        <v>32.83505358028741</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.622351202180395</v>
+        <v>9.426076896494697</v>
       </c>
       <c r="D14">
-        <v>4.30667036005389</v>
+        <v>4.415790040443184</v>
       </c>
       <c r="E14">
-        <v>11.20561689960924</v>
+        <v>7.739663695660427</v>
       </c>
       <c r="F14">
-        <v>65.49734473310852</v>
+        <v>81.63344426555226</v>
       </c>
       <c r="G14">
-        <v>3.749219191695837</v>
+        <v>2.011049002648095</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.89207351171601</v>
+        <v>8.314035258572417</v>
       </c>
       <c r="K14">
-        <v>25.39085683090199</v>
+        <v>32.47142568625902</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.603141108743955</v>
+        <v>9.362709086602642</v>
       </c>
       <c r="D15">
-        <v>4.305932469376423</v>
+        <v>4.392142772058081</v>
       </c>
       <c r="E15">
-        <v>11.20697363149771</v>
+        <v>7.708715136533111</v>
       </c>
       <c r="F15">
-        <v>65.39053214269693</v>
+        <v>81.16299715365523</v>
       </c>
       <c r="G15">
-        <v>3.749836299134023</v>
+        <v>2.013613071346942</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.89084319672784</v>
+        <v>8.284626494267778</v>
       </c>
       <c r="K15">
-        <v>25.35379980083767</v>
+        <v>32.24859726854083</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.492309867985194</v>
+        <v>8.9983173827797</v>
       </c>
       <c r="D16">
-        <v>4.302027299653273</v>
+        <v>4.258435796781508</v>
       </c>
       <c r="E16">
-        <v>11.21565384988329</v>
+        <v>7.534491055408984</v>
       </c>
       <c r="F16">
-        <v>64.77924698587006</v>
+        <v>78.48137990879724</v>
       </c>
       <c r="G16">
-        <v>3.753420993143052</v>
+        <v>2.028144736168192</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.88440339296644</v>
+        <v>8.11932442943338</v>
       </c>
       <c r="K16">
-        <v>25.14328657720001</v>
+        <v>30.96894525248841</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.423688301840195</v>
+        <v>8.773321378087525</v>
       </c>
       <c r="D17">
-        <v>4.299917998353488</v>
+        <v>4.177810492083495</v>
       </c>
       <c r="E17">
-        <v>11.22178605397358</v>
+        <v>7.430221600966067</v>
       </c>
       <c r="F17">
-        <v>64.40510281902571</v>
+        <v>76.84652928069158</v>
       </c>
       <c r="G17">
-        <v>3.755663361028641</v>
+        <v>2.036938235113619</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.88099722739997</v>
+        <v>8.020588418058132</v>
       </c>
       <c r="K17">
-        <v>25.01585555455432</v>
+        <v>30.18026973682824</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.38400200786463</v>
+        <v>8.643254959984169</v>
       </c>
       <c r="D18">
-        <v>4.298809159336723</v>
+        <v>4.131875277601353</v>
       </c>
       <c r="E18">
-        <v>11.22560947934067</v>
+        <v>7.371144941031428</v>
       </c>
       <c r="F18">
-        <v>64.19027355771459</v>
+        <v>75.9090725511787</v>
       </c>
       <c r="G18">
-        <v>3.756969083947733</v>
+        <v>2.041959904573822</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.87923797917323</v>
+        <v>7.964705606891073</v>
       </c>
       <c r="K18">
-        <v>24.94321542871259</v>
+        <v>29.72486001695929</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.370529081623968</v>
+        <v>8.599093770509567</v>
       </c>
       <c r="D19">
-        <v>4.298451567882662</v>
+        <v>4.116391139828245</v>
       </c>
       <c r="E19">
-        <v>11.22695489342095</v>
+        <v>7.351291256784036</v>
       </c>
       <c r="F19">
-        <v>64.11760437190249</v>
+        <v>75.59208284226796</v>
       </c>
       <c r="G19">
-        <v>3.757413929073175</v>
+        <v>2.04365468286943</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.87867663851596</v>
+        <v>7.945934180619492</v>
       </c>
       <c r="K19">
-        <v>24.91873561428039</v>
+        <v>29.57032135872495</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.431015980273344</v>
+        <v>8.797337792987694</v>
       </c>
       <c r="D20">
-        <v>4.300131714704629</v>
+        <v>4.18634623316072</v>
       </c>
       <c r="E20">
-        <v>11.22110259308099</v>
+        <v>7.441227191303263</v>
       </c>
       <c r="F20">
-        <v>64.44489414936278</v>
+        <v>77.02024683755951</v>
       </c>
       <c r="G20">
-        <v>3.755423005631716</v>
+        <v>2.03600606795343</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.88133912716065</v>
+        <v>8.031003561994005</v>
       </c>
       <c r="K20">
-        <v>25.02935360805838</v>
+        <v>30.26440095578117</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.631549286696378</v>
+        <v>9.456446322512667</v>
       </c>
       <c r="D21">
-        <v>4.307029949142477</v>
+        <v>4.427164750408925</v>
       </c>
       <c r="E21">
-        <v>11.20498233340163</v>
+        <v>7.754562574901789</v>
       </c>
       <c r="F21">
-        <v>65.54857682358841</v>
+        <v>81.85932959254131</v>
       </c>
       <c r="G21">
-        <v>3.748924123852673</v>
+        <v>2.009816240226245</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.89267428829802</v>
+        <v>8.328197884604707</v>
       </c>
       <c r="K21">
-        <v>25.40865841162719</v>
+        <v>32.57824882968525</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.760377782992969</v>
+        <v>9.884182732892945</v>
       </c>
       <c r="D22">
-        <v>4.312486065488604</v>
+        <v>4.590242294021037</v>
       </c>
       <c r="E22">
-        <v>11.19709145040991</v>
+        <v>7.968854624124094</v>
       </c>
       <c r="F22">
-        <v>66.27206301149839</v>
+        <v>85.06892376458374</v>
       </c>
       <c r="G22">
-        <v>3.744817489644417</v>
+        <v>1.992181479860087</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.90186614377323</v>
+        <v>8.532271596692164</v>
       </c>
       <c r="K22">
-        <v>25.66183923992719</v>
+        <v>34.08495514195</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.691837384215992</v>
+        <v>9.656011714565496</v>
       </c>
       <c r="D23">
-        <v>4.309486456041552</v>
+        <v>4.50258244914852</v>
       </c>
       <c r="E23">
-        <v>11.20106073466934</v>
+        <v>7.853522489252547</v>
       </c>
       <c r="F23">
-        <v>65.88578033972554</v>
+        <v>83.35034908164178</v>
       </c>
       <c r="G23">
-        <v>3.746996469349245</v>
+        <v>2.001651996704808</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.89679692743985</v>
+        <v>8.422351727516034</v>
       </c>
       <c r="K23">
-        <v>25.52625516348441</v>
+        <v>33.28071601261497</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.427703864889549</v>
+        <v>8.786482221610187</v>
       </c>
       <c r="D24">
-        <v>4.300034770352299</v>
+        <v>4.182485942508697</v>
       </c>
       <c r="E24">
-        <v>11.22141065780359</v>
+        <v>7.436248871254048</v>
       </c>
       <c r="F24">
-        <v>64.42690363174017</v>
+        <v>76.94170173784151</v>
       </c>
       <c r="G24">
-        <v>3.755531618723065</v>
+        <v>2.036427604123364</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.88118393447841</v>
+        <v>8.026292146093391</v>
       </c>
       <c r="K24">
-        <v>25.02324919566005</v>
+        <v>30.2263715329708</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.134719453682552</v>
+        <v>7.82263443869704</v>
       </c>
       <c r="D25">
-        <v>4.293817982322104</v>
+        <v>3.853457151652847</v>
       </c>
       <c r="E25">
-        <v>11.25468598578296</v>
+        <v>7.020100115267828</v>
       </c>
       <c r="F25">
-        <v>62.8680229196567</v>
+        <v>70.13381752549938</v>
       </c>
       <c r="G25">
-        <v>3.765349695612366</v>
+        <v>2.072617994778707</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.8719807876905</v>
+        <v>7.633310958682634</v>
       </c>
       <c r="K25">
-        <v>24.50601796186861</v>
+        <v>26.86048323748674</v>
       </c>
       <c r="L25">
         <v>0</v>
